--- a/£NXT.xlsx
+++ b/£NXT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D1A877-36F6-4331-B18B-EB7DC6505D12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A6B0FA-1092-4961-AB2C-454E6601470B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="31725" windowHeight="18900" xr2:uid="{81351393-485E-4E12-AA88-443294AEB95F}"/>
   </bookViews>
@@ -614,6 +614,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,21 +645,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1031,7 +1031,7 @@
   <dimension ref="A2:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1051,37 +1051,37 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="G5" s="45" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="G5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="47"/>
-      <c r="S5" s="45" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
+      <c r="S5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
-      <c r="W5" s="47"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="41"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>52.36</v>
+        <v>57.32</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="23">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C8" s="17">
         <f>C6*C7</f>
-        <v>6951.8895599999996</v>
+        <v>7610.4337199999991</v>
       </c>
       <c r="D8" s="35"/>
       <c r="G8" s="15"/>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="C12" s="18">
         <f>C8-C11</f>
-        <v>7567.6895599999998</v>
+        <v>8226.2337199999984</v>
       </c>
       <c r="D12" s="8"/>
       <c r="G12" s="15"/>
@@ -1323,11 +1323,11 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
       <c r="G15" s="15"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -1351,10 +1351,10 @@
       <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1439,11 +1439,11 @@
       <c r="W19" s="12"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
@@ -1501,37 +1501,37 @@
       <c r="B29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="44">
         <f>C12/'Financial Model'!O17</f>
-        <v>11.170021490774916</v>
-      </c>
-      <c r="D33" s="40"/>
+        <v>12.142042391143919</v>
+      </c>
+      <c r="D33" s="45"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="44">
         <f>C6/'Financial Model'!O18</f>
-        <v>9.8614553505535145</v>
-      </c>
-      <c r="D34" s="40"/>
+        <v>10.795619188191891</v>
+      </c>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
@@ -1544,11 +1544,11 @@
       <c r="B36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="44">
         <f>C6/'Financial Model'!O64</f>
-        <v>6.6149861386138609</v>
-      </c>
-      <c r="D36" s="40"/>
+        <v>7.2416158415841574</v>
+      </c>
+      <c r="D36" s="45"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
@@ -1559,17 +1559,26 @@
       <c r="B38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="46">
         <f>C6/'Financial Model'!N18</f>
-        <v>23.595786536449214</v>
-      </c>
-      <c r="D38" s="42"/>
+        <v>25.830987094523856</v>
+      </c>
+      <c r="D38" s="47"/>
       <c r="E38" s="1" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="S5:W5"/>
     <mergeCell ref="G5:P5"/>
@@ -1581,15 +1590,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{B4484D4E-048B-4AAA-8DF6-47F17980E769}"/>
